--- a/biology/Médecine/Technique_de_Seldinger/Technique_de_Seldinger.xlsx
+++ b/biology/Médecine/Technique_de_Seldinger/Technique_de_Seldinger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La technique de Seldinger désigne un protocole de soins mis en œuvre lors du cathétérisme d'un vaisseau sanguin ou d'une cavité afin d'en garantir un accès sécurisé.
-La technique doit son nom à son inventeur, le docteur Sven Ivar Seldinger, médecin radiologue suédois qui l'a présentée pour la première fois en 1953[1].
+La technique doit son nom à son inventeur, le docteur Sven Ivar Seldinger, médecin radiologue suédois qui l'a présentée pour la première fois en 1953.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Procédure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pose d'une voie veineuse centrale au moyen de la technique de Seldinger.  (Faire défiler à l'aide des flèches bleues ci-dessous)
@@ -549,7 +563,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La technique de Seldinger peut être utilisée dans une variété de cas, notamment pour effectuer un cathétérisme cardiaque, une angiographie, l'insertion d'un drain thoracique, d'une gastrostomie, d'une urostomie, d'un cathéter de Tenckhoff pour la dialyse péritonéale, l'insertion d'un pace-maker ou encore d'un cathéter de Swan-Ganz.
 Elle est notamment utilisée pour la technique de pose d'une voie veineuse centrale.
@@ -581,7 +597,9 @@
           <t>Complications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les complications majeures de cette technique sont l'hémorragie, la perforation ou l'infection.
 </t>
